--- a/biology/Médecine/Théophylline/Théophylline.xlsx
+++ b/biology/Médecine/Théophylline/Théophylline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophylline</t>
+          <t>Théophylline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La théophylline ou 1,3-diméthylxanthine est un alcaloïde du type méthylxanthine. C'est, avec d'autres alcaloïdes comme la caféine ou la théobromine, l'une des principales substances actives des feuilles de thé, d'où elle tire son nom. Elle est également présente entre autres dans le café, le chocolat, le maté et le guarana.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophylline</t>
+          <t>Théophylline</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les propriétés broncho-dilatatrices de la théophylline ont longtemps été utilisées dans le traitement de la bronchite chronique et de l'asthme. La théophylline n'est presque plus utilisée aujourd'hui[réf. nécessaire], sauf cas exceptionnels, au vu de ses effets indésirables notamment cardiaques. Elle a été remplacée par les inhalations de corticostéroïdes et/ou de bronchodilatateurs (anticholinergiques ou bêta-2-mimétique)
 Traitement de fond de l'asthme :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophylline</t>
+          <t>Théophylline</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La théophylline agit au niveau des mouvements intracellulaires du calcium. Elle a une action broncho-dilatatrice, elle renforce l'activité des muscles respiratoires et possède une action cardiaque inotrope positive.
 La théophylline est également un inhibiteur de la phosphodiestérase (qui transforme, au niveau cellulaire, l'AMPc en AMP qui est non réactif). De par cette action inhibitrice, l'AMPc est présent en plus grande concentration, et l'action au niveau cellulaire est plus importante notamment dans les cellules musculaires et hépatiques, favorisant une glycogénolyse active. C'est de là que viennent les vertus excitantes du thé outre la présence de caféine.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophylline</t>
+          <t>Théophylline</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tachycardie
 Tremblements, nervosité
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophylline</t>
+          <t>Théophylline</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Enfant de moins de 30 mois
 Insuffisance coronarienne sévère
